--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_131.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:00:00.465952', '0:00:13.353300'), ('0:00:26.391305', '0:00:37.943232')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.525011', '0:00:20.319206'), ('0:00:09.370997', '0:00:22.141972')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:34.660000', '0:00:36.260000'), ('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1023,182 +1048,136 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(59.62, 64.34)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.5, 4.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.08, 42.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
